--- a/Client/Excel/S_技能.xlsx
+++ b/Client/Excel/S_技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能描述表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="125">
   <si>
     <t>技能ID</t>
   </si>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1205,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1390,7 +1394,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
@@ -1405,7 +1409,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8">
@@ -1430,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="E3 E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1485,7 +1489,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -1865,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Client/Excel/S_技能.xlsx
+++ b/Client/Excel/S_技能.xlsx
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,10 +1606,10 @@
         <v>38</v>
       </c>
       <c r="E5" s="4">
-        <v>10002</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1626,10 +1626,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="4">
-        <v>10002</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Excel/S_技能.xlsx
+++ b/Client/Excel/S_技能.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UntiyWorkSpace\MyGame\Client\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBEFFE-CB91-473E-B323-EB35CC37A44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能描述表" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,50 @@
     <sheet name="护盾" sheetId="7" r:id="rId6"/>
     <sheet name="效果表" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>86187</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B27E77B9-AFC3-4B0B-8760-C9042CD0DED1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86187:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 主动攻击
+1 被动攻击 
+2 普攻</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="164">
   <si>
     <t>技能ID</t>
   </si>
@@ -511,16 +555,170 @@
     <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端+服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400101,400102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zidan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_xinggongmen_pugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_xinggongmen_skill_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_xinggongmen_skill_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2001</t>
+  </si>
+  <si>
+    <t>掌心雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400421</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400431</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400331</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jingangmen_pugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jingangmen_skill_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jingangmen_skill_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jqingyunmen_pugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jqingyunmen_skill_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_jqingyunmen_skill_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_penglaimen_pugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_penglaimen_skill_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_penglaimen_skill_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400411</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,11 +730,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -562,8 +762,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +797,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -606,13 +833,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +944,91 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +1057,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -709,12 +1071,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,9 +1153,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,6 +1205,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1008,24 +1409,24 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="9" customWidth="1"/>
+    <col min="1" max="2" width="22.265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="9" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="10" max="10" width="11.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.46484375" style="9" customWidth="1"/>
     <col min="12" max="12" width="17" style="9" customWidth="1"/>
-    <col min="13" max="14" width="15.75" style="9" customWidth="1"/>
+    <col min="13" max="14" width="15.73046875" style="9" customWidth="1"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>115</v>
       </c>
@@ -1071,7 +1472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <f>B5*1000+C5</f>
         <v>1001</v>
@@ -1141,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <f>B6*1000+C6</f>
         <v>2001</v>
@@ -1165,63 +1566,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4 C4 D4 E4 F4 G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4 C4 D4 E4 F4 G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="25.9296875" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="35.46484375" customWidth="1"/>
+    <col min="4" max="4" width="25.46484375" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.73046875" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1651,9 @@
       <c r="I1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1263,7 +1667,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -1291,7 +1695,9 @@
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1305,7 +1711,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1739,9 @@
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1347,7 +1755,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:22" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1372,10 +1780,12 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1389,66 +1799,655 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:22" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>40010</v>
+      </c>
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="37">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
+      <c r="G5" s="3"/>
+      <c r="J5" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>40011</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="37">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>40012</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>40013</v>
+      </c>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>40020</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>40021</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>40022</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>40023</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="25" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>40030</v>
+      </c>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>40031</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="25" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>40032</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>40033</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>10011</v>
+      </c>
+      <c r="B17" s="29">
+        <v>2</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>10012</v>
+      </c>
+      <c r="B18" s="29">
+        <v>2</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44">
         <v>10002</v>
       </c>
-      <c r="B6" s="4">
+      <c r="F18" s="30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>40040</v>
+      </c>
+      <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>10002</v>
-      </c>
-      <c r="F6">
-        <v>1500</v>
-      </c>
+      <c r="E19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>40041</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="25" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>40042</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>40043</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+    </row>
+    <row r="33" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+    </row>
+    <row r="34" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+    </row>
+    <row r="35" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
+    </row>
+    <row r="36" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+    </row>
+    <row r="37" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+    </row>
+    <row r="38" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+    </row>
+    <row r="39" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
+    </row>
+    <row r="40" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+    </row>
+    <row r="41" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39"/>
+    </row>
+    <row r="42" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+    </row>
+    <row r="43" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
+    </row>
+    <row r="44" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+    </row>
+    <row r="45" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+    </row>
+    <row r="46" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
+    </row>
+    <row r="47" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+    </row>
+    <row r="48" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39"/>
+    </row>
+    <row r="49" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="39"/>
+    </row>
+    <row r="50" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+    </row>
+    <row r="51" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39"/>
+    </row>
+    <row r="52" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+    </row>
+    <row r="53" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="39"/>
+    </row>
+    <row r="54" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+    </row>
+    <row r="55" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="39"/>
+    </row>
+    <row r="56" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
+    </row>
+    <row r="57" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
+    </row>
+    <row r="58" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39"/>
+    </row>
+    <row r="59" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39"/>
+    </row>
+    <row r="60" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
+    </row>
+    <row r="61" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39"/>
+    </row>
+    <row r="62" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
+    </row>
+    <row r="63" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="39"/>
+    </row>
+    <row r="64" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="39"/>
+    </row>
+    <row r="65" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="39"/>
+    </row>
+    <row r="66" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="39"/>
+    </row>
+    <row r="67" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="39"/>
+    </row>
+    <row r="68" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
+    </row>
+    <row r="69" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="39"/>
+    </row>
+    <row r="70" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+    </row>
+    <row r="71" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+    </row>
+    <row r="72" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="39"/>
+    </row>
+    <row r="73" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="39"/>
+    </row>
+    <row r="74" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="39"/>
+    </row>
+    <row r="75" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
+    </row>
+    <row r="76" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+    </row>
+    <row r="77" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+    </row>
+    <row r="78" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+    </row>
+    <row r="79" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+    </row>
+    <row r="80" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+    </row>
+    <row r="81" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+    </row>
+    <row r="82" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+    </row>
+    <row r="83" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+    </row>
+    <row r="84" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+    </row>
+    <row r="85" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+    </row>
+    <row r="86" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+    </row>
+    <row r="87" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="39"/>
+    </row>
+    <row r="88" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+    </row>
+    <row r="89" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+    </row>
+    <row r="90" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+    </row>
+    <row r="91" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
+    </row>
+    <row r="92" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="39"/>
+    </row>
+    <row r="93" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+    </row>
+    <row r="94" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+    </row>
+    <row r="95" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="39"/>
+    </row>
+    <row r="96" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="39"/>
+    </row>
+    <row r="97" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+    </row>
+    <row r="98" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="39"/>
+    </row>
+    <row r="99" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="39"/>
+    </row>
+    <row r="100" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="39"/>
+    </row>
+    <row r="101" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="39"/>
+    </row>
+    <row r="102" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="39"/>
+    </row>
+    <row r="103" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="39"/>
+    </row>
+    <row r="104" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="39"/>
+    </row>
+    <row r="105" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="39"/>
+    </row>
+    <row r="106" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="39"/>
+    </row>
+    <row r="107" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+    </row>
+    <row r="108" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="39"/>
+    </row>
+    <row r="109" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="39"/>
+    </row>
+    <row r="110" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="39"/>
+    </row>
+    <row r="111" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="39"/>
+    </row>
+    <row r="112" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="39"/>
+    </row>
+    <row r="113" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="39"/>
+    </row>
+    <row r="114" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="39"/>
+    </row>
+    <row r="115" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="39"/>
+    </row>
+    <row r="116" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="39"/>
+    </row>
+    <row r="117" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="39"/>
+    </row>
+    <row r="118" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="39"/>
+    </row>
+    <row r="119" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="39"/>
+    </row>
+    <row r="120" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="39"/>
+    </row>
+    <row r="121" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="39"/>
+    </row>
+    <row r="122" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="39"/>
+    </row>
+    <row r="123" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+    </row>
+    <row r="124" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="39"/>
+    </row>
+    <row r="125" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="39"/>
+    </row>
+    <row r="126" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="39"/>
+    </row>
+    <row r="127" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="39"/>
+    </row>
+    <row r="128" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="39"/>
+    </row>
+    <row r="129" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="39"/>
+    </row>
+    <row r="130" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="39"/>
+    </row>
+    <row r="131" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="39"/>
+    </row>
+    <row r="132" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="39"/>
+    </row>
+    <row r="133" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="39"/>
+    </row>
+    <row r="134" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="39"/>
+    </row>
+    <row r="135" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="39"/>
+    </row>
+    <row r="136" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="39"/>
+    </row>
+    <row r="137" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="39"/>
+    </row>
+    <row r="138" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="39"/>
+    </row>
+    <row r="139" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="39"/>
+    </row>
+    <row r="140" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="39"/>
+    </row>
+    <row r="141" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="39"/>
+    </row>
+    <row r="142" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="39"/>
+    </row>
+    <row r="143" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="39"/>
+    </row>
+    <row r="144" spans="1:1" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="39"/>
+    </row>
+    <row r="145" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:V4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:V4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +2483,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
@@ -1520,7 +2519,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -1556,7 +2555,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1592,15 +2591,15 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
+      <c r="C5" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>38</v>
@@ -1612,7 +2611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
@@ -1625,17 +2624,309 @@
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>50</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>300</v>
       </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>400101</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>400111</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>400121</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>400131</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="6">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="6">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="6">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="6">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 O4 P4 Q4 R4 S4 T4 U4 V4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:V4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1648,29 +2939,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" customWidth="1"/>
+    <col min="5" max="5" width="22.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="9" max="10" width="17.59765625" customWidth="1"/>
+    <col min="11" max="11" width="15.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +2999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +3037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +3075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +3113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50001</v>
       </c>
@@ -1857,7 +3148,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:L4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1866,27 +3157,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="20.1328125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +3206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1944,7 +3235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1973,7 +3264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +3293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50072</v>
       </c>
@@ -2025,7 +3316,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:I4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2034,27 +3325,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" customWidth="1"/>
+    <col min="5" max="5" width="19.73046875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -2091,7 +3382,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2128,7 +3419,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +3456,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +3493,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="5" customFormat="1">
+    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>10001</v>
       </c>
@@ -2228,7 +3519,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:G4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2238,23 +3529,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="48.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="48.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>62</v>
       </c>
@@ -2271,7 +3562,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2288,7 +3579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +3596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2322,7 +3613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
@@ -2330,13 +3621,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:E4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
